--- a/SpMVC_ShopV2/쇼핑몰 테이블명세 양식.xlsx
+++ b/SpMVC_ShopV2/쇼핑몰 테이블명세 양식.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보 테이블 명세" sheetId="2" r:id="rId1"/>
-    <sheet name="거래처정보 테이블 명세" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="거래처정보 테이블 명세" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -302,6 +299,30 @@
   </si>
   <si>
     <t>nVARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1이면 사용하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_NOT_USE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1009,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="A1:WVT20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" topLeftCell="D4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1930,16 +1951,28 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -2079,10 +2112,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:WVT20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3004,11 +3117,21 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3137,12 +3260,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
